--- a/excel_files/8.7.1.xlsx
+++ b/excel_files/8.7.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>(пайыз менен)</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Процентная доля детей в возрасте 5–17 лет, вовлеченных в детский труд</t>
   </si>
   <si>
-    <t>по полу</t>
-  </si>
-  <si>
-    <t>Мужской</t>
-  </si>
-  <si>
-    <t>Женский</t>
-  </si>
-  <si>
     <t>Возраст (в годах)</t>
   </si>
   <si>
@@ -71,30 +62,15 @@
     <t>Percentage of children aged 5–17 years involved in child labor</t>
   </si>
   <si>
-    <t>by sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male </t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Age (in years)</t>
   </si>
   <si>
     <t>Балдар эмгегине тартылган 5-17 жаштагы балдардын пайыздык үлүшү</t>
   </si>
   <si>
-    <t>Эркек</t>
-  </si>
-  <si>
     <t>Жаш курак (жылдар менен)</t>
   </si>
   <si>
-    <t>Аял</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.7.1 Доля и число детей в возрасте от 5 до 17 лет, занятых детским трудом, в разбивке по полу и возрасту </t>
   </si>
   <si>
@@ -179,12 +155,6 @@
     <t>Функциональные трудности у ребенка</t>
   </si>
   <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>rural</t>
-  </si>
-  <si>
     <t>Urbanisation</t>
   </si>
   <si>
@@ -227,27 +197,6 @@
     <t>Attends</t>
   </si>
   <si>
-    <t>does not attend</t>
-  </si>
-  <si>
-    <t>preschool or not /primary</t>
-  </si>
-  <si>
-    <t>basic general</t>
-  </si>
-  <si>
-    <t>average total</t>
-  </si>
-  <si>
-    <t>vocational primary /secondary</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
-    <t>educationof mother</t>
-  </si>
-  <si>
     <t>Functional difficulties in a child</t>
   </si>
   <si>
@@ -257,9 +206,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>wealth quintile</t>
-  </si>
-  <si>
     <t>poorest</t>
   </si>
   <si>
@@ -278,12 +224,6 @@
     <t>Жерлери</t>
   </si>
   <si>
-    <t>шаар</t>
-  </si>
-  <si>
-    <t>айыл</t>
-  </si>
-  <si>
     <t>Аймактар боюнча</t>
   </si>
   <si>
@@ -362,9 +302,6 @@
     <t>8.7.1 Жашы жана жыныстык бөлүнүшү боюнча, эмгектенген балдардын  5 тен 17  чейинки жаштагы балдардын саны жана  үлүшү</t>
   </si>
   <si>
-    <t>жынысы боюнча</t>
-  </si>
-  <si>
     <t>Орто жалпы</t>
   </si>
   <si>
@@ -393,6 +330,72 @@
   </si>
   <si>
     <t>Чуйская область</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Эркектер</t>
+  </si>
+  <si>
+    <t>Аялдар</t>
+  </si>
+  <si>
+    <t>По полу</t>
+  </si>
+  <si>
+    <t>Жынысы боюнча</t>
+  </si>
+  <si>
+    <t>Шаар</t>
+  </si>
+  <si>
+    <t>Айыл</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Does not attend</t>
+  </si>
+  <si>
+    <t>Preschool or not /primary</t>
+  </si>
+  <si>
+    <t>Basic general</t>
+  </si>
+  <si>
+    <t>Average total</t>
+  </si>
+  <si>
+    <t>Vocational primary /secondary</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Баланын функционалдык кыйнчылыктары</t>
+  </si>
+  <si>
+    <t>Wealth quintile</t>
+  </si>
+  <si>
+    <t>Educationof mother</t>
   </si>
 </sst>
 </file>
@@ -965,13 +968,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1011,13 @@
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="41">
         <v>26.7</v>
@@ -1022,25 +1025,25 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D7" s="10">
         <v>33.6</v>
@@ -1048,13 +1051,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D8" s="11">
         <v>19</v>
@@ -1062,25 +1065,25 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D10" s="11">
         <v>11.9</v>
@@ -1088,13 +1091,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D11" s="11">
         <v>33.6</v>
@@ -1102,25 +1105,25 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11">
         <v>27.7</v>
@@ -1128,13 +1131,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11">
         <v>34</v>
@@ -1142,13 +1145,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D15" s="11">
         <v>27</v>
@@ -1156,13 +1159,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11">
         <v>40.5</v>
@@ -1170,13 +1173,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D17" s="11">
         <v>33.299999999999997</v>
@@ -1184,13 +1187,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D18" s="11">
         <v>35.1</v>
@@ -1198,13 +1201,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D19" s="11">
         <v>24.5</v>
@@ -1212,13 +1215,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D20" s="11">
         <v>7.3</v>
@@ -1226,13 +1229,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11">
         <v>6.1</v>
@@ -1240,25 +1243,25 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
         <v>27.9</v>
@@ -1266,13 +1269,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
         <v>23.3</v>
@@ -1280,13 +1283,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
         <v>26.6</v>
@@ -1294,25 +1297,25 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D27" s="26">
         <v>27</v>
@@ -1320,13 +1323,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D28" s="7">
         <v>21.6</v>
@@ -1334,38 +1337,38 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D31" s="7">
         <v>28.7</v>
@@ -1373,13 +1376,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D32" s="7">
         <v>29.2</v>
@@ -1387,13 +1390,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D33" s="7">
         <v>24.4</v>
@@ -1401,36 +1404,38 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D34" s="7">
         <v>23.1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
+      <c r="A35" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="B35" s="24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D36" s="17">
         <v>34.9</v>
@@ -1438,13 +1443,13 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D37" s="17">
         <v>25.9</v>
@@ -1452,24 +1457,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D39" s="17">
         <v>32.1</v>
@@ -1477,13 +1482,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D40" s="17">
         <v>30.6</v>
@@ -1491,13 +1496,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D41" s="17">
         <v>31.8</v>
@@ -1505,13 +1510,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D42" s="29">
         <v>28</v>
@@ -1519,13 +1524,13 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="40" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D43" s="27">
         <v>6.1</v>
@@ -1533,13 +1538,13 @@
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/8.7.1.xlsx
+++ b/excel_files/8.7.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
   <si>
     <t>(пайыз менен)</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Процентная доля детей в возрасте 5–17 лет, вовлеченных в детский труд</t>
   </si>
   <si>
-    <t>Возраст (в годах)</t>
-  </si>
-  <si>
     <t>15-17</t>
   </si>
   <si>
@@ -62,24 +59,12 @@
     <t>Percentage of children aged 5–17 years involved in child labor</t>
   </si>
   <si>
-    <t>Age (in years)</t>
-  </si>
-  <si>
     <t>Балдар эмгегине тартылган 5-17 жаштагы балдардын пайыздык үлүшү</t>
   </si>
   <si>
-    <t>Жаш курак (жылдар менен)</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.7.1 Доля и число детей в возрасте от 5 до 17 лет, занятых детским трудом, в разбивке по полу и возрасту </t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
     <t>8.7.1 Proportion and number of children aged 5–17 years engaged in child labour, by sex and age</t>
   </si>
   <si>
@@ -308,9 +293,6 @@
     <t>Жетиштүү жашоо индексинин квинтили</t>
   </si>
   <si>
-    <t>According to the cluster survey for many indicators, 2018.</t>
-  </si>
-  <si>
     <t>Баткенская область</t>
   </si>
   <si>
@@ -396,6 +378,30 @@
   </si>
   <si>
     <t>Educationof mother</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Возраст (лет)</t>
+  </si>
+  <si>
+    <t>Age (years)</t>
+  </si>
+  <si>
+    <t>Жаш курак (жаш)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2014- ж., 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2014г., 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to Multiple Indicator Cluster Survey, 2014, 2018, 2023.</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -957,27 +966,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="39.85546875" customWidth="1"/>
+    <col min="1" max="3" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -989,13 +998,15 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1006,549 +1017,754 @@
         <v>5</v>
       </c>
       <c r="D4" s="14">
+        <v>2014</v>
+      </c>
+      <c r="E4" s="14">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="F4" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="41">
+        <v>25.8</v>
+      </c>
+      <c r="E5" s="41">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="41">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="10">
+        <v>29.9</v>
+      </c>
+      <c r="E7" s="10">
+        <v>33.6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="D10" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>11.9</v>
+      </c>
+      <c r="F10" s="11">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="E11" s="11">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="F11" s="11">
         <v>22</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="11">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="11">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" s="11">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="11">
+        <v>27.7</v>
+      </c>
+      <c r="F13" s="11">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11">
+        <v>21.4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="E15" s="11">
+        <v>27</v>
+      </c>
+      <c r="F15" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11">
+        <v>20.8</v>
+      </c>
+      <c r="E16" s="11">
+        <v>40.5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="11">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E17" s="11">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F17" s="11">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>35.1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D19" s="11">
+        <v>42.6</v>
+      </c>
+      <c r="E19" s="11">
+        <v>24.5</v>
+      </c>
+      <c r="F19" s="11">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="11">
+        <v>12</v>
+      </c>
+      <c r="E21" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="F23" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="26">
+        <v>27.5</v>
+      </c>
+      <c r="E27" s="26">
+        <v>27</v>
+      </c>
+      <c r="F27" s="26">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7">
+        <v>14.4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F28" s="7">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="28">
+        <v>36.1</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="E31" s="7">
+        <v>28.7</v>
+      </c>
+      <c r="F31" s="7">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="7">
+        <v>27.4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>29.2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="F33" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="E34" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="17">
+        <v>34.9</v>
+      </c>
+      <c r="F36" s="17">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="17">
+        <v>25.9</v>
+      </c>
+      <c r="F37" s="17">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="11">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="11">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="11">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C38" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.3</v>
+      </c>
+      <c r="E39" s="17">
+        <v>32.1</v>
+      </c>
+      <c r="F39" s="17">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="17">
+        <v>28.8</v>
+      </c>
+      <c r="E40" s="17">
+        <v>30.6</v>
+      </c>
+      <c r="F40" s="17">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="17">
+        <v>32.9</v>
+      </c>
+      <c r="E41" s="17">
+        <v>31.8</v>
+      </c>
+      <c r="F41" s="17">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="29">
+        <v>27.1</v>
+      </c>
+      <c r="E42" s="29">
+        <v>28</v>
+      </c>
+      <c r="F42" s="29">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="27">
+        <v>11</v>
+      </c>
+      <c r="E43" s="27">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="7">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="7">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="33" t="s">
+      <c r="F43" s="27">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="7">
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="7">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="7">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="7">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="17">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="17">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="17">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="17">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="17">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="27">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="B44" s="15" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A24:C24" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>